--- a/Przypakdki testowe,Karolina Sandak.xlsx
+++ b/Przypakdki testowe,Karolina Sandak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertsandak/Documents/Karolinka/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertsandak/Documents/Karolinka/Przypadki testowe/Test-Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73632676-458C-574F-A222-A7C5896B8D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022E3F68-210D-5245-8707-5365098BBF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{657EE937-9D79-D94D-899C-D575821EDB6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Nazwa</t>
   </si>
@@ -110,12 +110,15 @@
   <si>
     <t>Rejestracja nowego klienta</t>
   </si>
+  <si>
+    <t>Przypadki testowe do sklepu internetowego https://magento2-demo.magebit.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,8 +146,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,17 +197,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -205,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE59ABB-EF6A-3343-82B5-839668F6C64B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,108 +583,100 @@
     <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="184" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:6" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="325" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:6" ht="250" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Przypakdki testowe,Karolina Sandak.xlsx
+++ b/Przypakdki testowe,Karolina Sandak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertsandak/Documents/Karolinka/Przypadki testowe/Test-Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022E3F68-210D-5245-8707-5365098BBF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76198A9F-8C45-DE45-9F0B-69F43E86ECE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{657EE937-9D79-D94D-899C-D575821EDB6C}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Przypakdki testowe,Karolina Sandak.xlsx
+++ b/Przypakdki testowe,Karolina Sandak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertsandak/Documents/Karolinka/Przypadki testowe/Test-Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76198A9F-8C45-DE45-9F0B-69F43E86ECE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F2164-F667-6E42-9E2B-BA27F0398DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{657EE937-9D79-D94D-899C-D575821EDB6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Nazwa</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>W koszyku jest dodany produkt</t>
-  </si>
-  <si>
-    <t>POZYTYWNY</t>
   </si>
   <si>
     <t>-</t>
@@ -112,6 +109,28 @@
   </si>
   <si>
     <t>Przypadki testowe do sklepu internetowego https://magento2-demo.magebit.com</t>
+  </si>
+  <si>
+    <t>Pozytywny</t>
+  </si>
+  <si>
+    <t>Negatywny</t>
+  </si>
+  <si>
+    <t>Usuwanie produktu z koszyka</t>
+  </si>
+  <si>
+    <t>Użytkownik ma dodany produkt do koszyka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Wchodzimy na strone https://magento2-demo.magebit.com/# 
+2. Klikamy w ikonkę koszyka,
+3. Klikamy w przycisk "View and Edit Card",
+4. Klikamy w przyciks/symol kosza
+</t>
+  </si>
+  <si>
+    <t>Pojawi się komunikat "You have no items in your shopping cart."</t>
   </si>
 </sst>
 </file>
@@ -567,25 +586,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE59ABB-EF6A-3343-82B5-839668F6C64B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -593,7 +613,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -613,70 +633,106 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" ht="250" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:9" ht="250" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pozytywny" sqref="F13:F48" xr:uid="{0282A969-6B8D-6248-94F4-A003A189DC5E}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pozytywny" sqref="F3:F12" xr:uid="{173E2ACC-AFDA-094C-9E2E-53C98809E530}">
+      <formula1>$I$7:$I$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Przypakdki testowe,Karolina Sandak.xlsx
+++ b/Przypakdki testowe,Karolina Sandak.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertsandak/Documents/Karolinka/Przypadki testowe/Test-Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F2164-F667-6E42-9E2B-BA27F0398DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252E777-92F1-F44C-B6D3-BE1AD7A48363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{657EE937-9D79-D94D-899C-D575821EDB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Nazwa</t>
   </si>
   <si>
-    <t>Wejśćie</t>
-  </si>
-  <si>
     <t>Warunki wstępne</t>
   </si>
   <si>
@@ -56,88 +53,187 @@
     <t>Wynik</t>
   </si>
   <si>
-    <t>Dodanie produktu do koszyka</t>
-  </si>
-  <si>
     <t>W koszyku jest dodany produkt</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Sortowanie produków po cenie</t>
-  </si>
-  <si>
-    <t>1. wchodzimy na strone https://magento2-demo.magebit.com/#
-2. Klikamy w "New Luma Yoga Collection"
-3.Klikamy  sort by "price" rosnąco</t>
-  </si>
-  <si>
-    <t>Produty powinny być posortowane od najniższej do najwyższej ceny</t>
-  </si>
-  <si>
-    <t>NEGATYWNY</t>
-  </si>
-  <si>
-    <t>1. Wchodzimy na strone https://magento2-demo.magebit.com/# 
-2. klikamy pierwszy produkt z sekcji Hot Sellers     
-3. wybieramy dostępne opcje- rozmia XS,  kolor BLUE, klikamy "add to card"
-4. klikamy w koszyk " view and edit card"</t>
-  </si>
-  <si>
-    <t>First Name; karolina
-Last Name; sandak
-email; karolinatestymanualne@gmial.com
-hasło; Karolinatesty!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. wchodzimy na strone https://magento2-demo.magebit.com/# 
-2. klikamy w Create an Account,
-3. w pole First Name wpisujemy wartość wejsciową,
-4. w pole Last Name wpisujemy wartość wejsciową,
-5.w pole email wpisujemy wartość wejściową,
-6. w pole hasło wpisujemy wartość wejsciową,
-7 w polu confirm Password ponownie wpisujemy hasło z wartości wejsciowej, 
-8. Klikamy w create an account
+    <t>Rejestracja nowego klienta</t>
+  </si>
+  <si>
+    <t>Przypadki testowe do sklepu internetowego https://magento2-demo.magebit.com</t>
+  </si>
+  <si>
+    <t>Pozytywny</t>
+  </si>
+  <si>
+    <t>Negatywny</t>
+  </si>
+  <si>
+    <t>Usuwanie produktu z koszyka</t>
+  </si>
+  <si>
+    <t>Użytkownik ma dodany produkt do koszyka</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie po produkcie</t>
+  </si>
+  <si>
+    <t>Pojawia się komunikat "This is a required field" przy każdym polu</t>
+  </si>
+  <si>
+    <t>Wysłanie pustego formularza z opinią o produkcie</t>
+  </si>
+  <si>
+    <t>Kontakt mailowy z pr@luma.com</t>
+  </si>
+  <si>
+    <t>Edycja koszyka</t>
+  </si>
+  <si>
+    <t>Zmienia się liczba produków w koszyku</t>
+  </si>
+  <si>
+    <t>Filtrowanie produktów po rozmiarze</t>
+  </si>
+  <si>
+    <t>Dane wejściowe</t>
+  </si>
+  <si>
+    <t>First Name: karolina
+Last Name: sandak
+email: karolinatestymanualne@gmial.com
+hasło: Karolinatesty!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. wejdź na strone https://magento2-demo.magebit.com/# 
+2. kliknij w ikonkę koszyka,
+3. kliknj w przycisk "View and Edit Card",
+4. kliknij w przyciks/symol kosza
 </t>
   </si>
   <si>
-    <t>Konto zostaje zarejestrowane</t>
-  </si>
-  <si>
-    <t>Rejestracja nowego klienta</t>
-  </si>
-  <si>
-    <t>Przypadki testowe do sklepu internetowego https://magento2-demo.magebit.com</t>
-  </si>
-  <si>
-    <t>Pozytywny</t>
-  </si>
-  <si>
-    <t>Negatywny</t>
-  </si>
-  <si>
-    <t>Usuwanie produktu z koszyka</t>
-  </si>
-  <si>
-    <t>Użytkownik ma dodany produkt do koszyka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Wchodzimy na strone https://magento2-demo.magebit.com/# 
-2. Klikamy w ikonkę koszyka,
-3. Klikamy w przycisk "View and Edit Card",
-4. Klikamy w przyciks/symol kosza
+    <t>1. wejdź na strone https://magento2-demo.magebit.com/#
+2. kliknij w "New Luma Yoga Collection"
+3. kliknij sort by "price" rosnąco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. wejdź na strone https://magento2-demo.magebit.com/# 
+2. kliknij w Create an Account,
+3. w pole First Name wpisz wartość wejsciową,
+4. w pole Last Name wpisz wartość wejsciową,
+5.w pole email wpisz wartość wejściową,
+6. w pole hasło wpisz wartość wejsciową,
+7 w polu confirm Password ponownie wpisz hasło z wartości wejsciowej, 
+8. kliknij w create an account
 </t>
   </si>
   <si>
-    <t>Pojawi się komunikat "You have no items in your shopping cart."</t>
+    <t>1. wejdź na strone https://magento2-demo.magebit.com/# 
+2. wpisz w wyszukiwarkę wartość wejściową "Kratos Gym Pant",
+3. kliknij enter</t>
+  </si>
+  <si>
+    <t>1. wejdź na strone https://magento2-demo.magebit.com/# ,
+2. kliknij w koszyk "View and Edit Cart",
+3. kliknij w produkt w koszyku,
+4. kliknij w zakładkę reviews,
+5. kliknij w "submit Review"</t>
+  </si>
+  <si>
+    <t>1. wejdź na strone https://magento2-demo.magebit.com/# ,
+2. kliknij w "Contact Us",
+3. kliknij w adres pr@luma.com</t>
+  </si>
+  <si>
+    <t>Zostajesz przekierowany  do skrzytnki mailowej</t>
+  </si>
+  <si>
+    <t>Zostajesz przekierowany do produktu z wartości wejsciowej</t>
+  </si>
+  <si>
+    <t>Produty są posortowane od najniższej do najwyższej ceny</t>
+  </si>
+  <si>
+    <t>Pojawia się komunikat "You have no items in your shopping cart."</t>
+  </si>
+  <si>
+    <t>1. wejdź na strone https://magento2-demo.magebit.com/# 
+2. kliknij pierwszy dostępny produkt z sekcji Hot Sellers     
+3. wybierz dostępne opcje- rozmia XS,  kolor BLUE, kliknij "add to card"
+4. kliknij w koszyk " view and edit card"</t>
+  </si>
+  <si>
+    <t>Pojawia się komunikat "new account"</t>
+  </si>
+  <si>
+    <t>Użytkownik ma dodany jeden produkt do koszyka</t>
+  </si>
+  <si>
+    <t>Rzeczywisty rezultat</t>
+  </si>
+  <si>
+    <t>Sortowanie produktów po cenie</t>
+  </si>
+  <si>
+    <t>W kategorii New Luma Yoga Collection znajdują się 32  produkty  posortowane po 'Position' wśród nich:
+-  Ida Workout Parachute Pant $48
+- Fiona Fitness Short $29</t>
+  </si>
+  <si>
+    <t>Produkty nie są posortowane po cenie rosnąco, produkt Ida Workout Parachute Pant $48 jest wcześniej niż Fiona Fitness Short $29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Początkowa liczba produktów w koszyku :1 
+Docelowa liczba produktów w koszyku :4 </t>
+  </si>
+  <si>
+    <t>1. wejdź na strone https://magento2-demo.magebit.com/#,
+2. kliknij w koszyk "View and Edit Cart",
+3. edytuj liczbę prodoktów w koszyku z wartości początkowej na wartość docelową,
+4. kliknij enter</t>
+  </si>
+  <si>
+    <t>Użytkownik ma jeden produkt w koszyku w liczbie 1</t>
+  </si>
+  <si>
+    <t>Dodanie produktu z atrybutami do koszyka</t>
+  </si>
+  <si>
+    <t>Produkt:Koszulka "Radiant Tee"
+size: XS
+color: blue</t>
+  </si>
+  <si>
+    <t>Produktu: "Kratos Gym Pant"</t>
+  </si>
+  <si>
+    <t>Produkt  "Kratos Gym Pant" istnieje w systemie</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie nieistniejącego produktu</t>
+  </si>
+  <si>
+    <t>Produkt:"buty"</t>
+  </si>
+  <si>
+    <t>Produkt "buty" niesitnieje</t>
+  </si>
+  <si>
+    <t>1. wejdź na strone https://magento2-demo.magebit.com/# 
+2. wpisz w wyszukiwarę wartość wejściową "buty"
+3. kliknij enter</t>
+  </si>
+  <si>
+    <t>Pojawia się komunikat walidacyjny "Your search returned no results."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,8 +268,29 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -251,6 +374,37 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE59ABB-EF6A-3343-82B5-839668F6C64B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,12 +754,13 @@
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -618,121 +773,531 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="200" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="250" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="50" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="125" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="250" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pozytywny" sqref="F13:F48" xr:uid="{0282A969-6B8D-6248-94F4-A003A189DC5E}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pozytywny" sqref="F3:F12" xr:uid="{173E2ACC-AFDA-094C-9E2E-53C98809E530}">
-      <formula1>$I$7:$I$8</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pozytywny" sqref="F16:F51" xr:uid="{0282A969-6B8D-6248-94F4-A003A189DC5E}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pozytywny" sqref="F3:F15" xr:uid="{173E2ACC-AFDA-094C-9E2E-53C98809E530}">
+      <formula1>$I$8:$I$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>